--- a/05_Entregable 3/previo/Diccionarios/MD_16_UPMA_FAUNA SILVESTRE CON CARNE DE MONTE.xlsx
+++ b/05_Entregable 3/previo/Diccionarios/MD_16_UPMA_FAUNA SILVESTRE CON CARNE DE MONTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javi_Angelito\wcs\04_Entregable 2\envio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\05_Entregable 3\previo\Diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A9B3CA-74F5-4572-9798-50A2C6238C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="16_1_general" sheetId="2" r:id="rId1"/>
@@ -30,12 +29,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">comparativo!$A$1:$H$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="215">
   <si>
     <t>variables</t>
   </si>
@@ -193,18 +192,12 @@
     <t>Frecuencia de actualización</t>
   </si>
   <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
     <t>Definición</t>
   </si>
   <si>
     <t>Formato de Datos</t>
   </si>
   <si>
-    <t>Unidad de Medida</t>
-  </si>
-  <si>
     <t>Fuente de Datos</t>
   </si>
   <si>
@@ -602,12 +595,96 @@
   </si>
   <si>
     <t>No se especifica las unidades de medida de las coordenadas</t>
+  </si>
+  <si>
+    <t>Nombre actual</t>
+  </si>
+  <si>
+    <t>Nombre propuesto</t>
+  </si>
+  <si>
+    <t>orden</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>canal_registro</t>
+  </si>
+  <si>
+    <t>numero_parte</t>
+  </si>
+  <si>
+    <t>nzona</t>
+  </si>
+  <si>
+    <t>nsub_zona</t>
+  </si>
+  <si>
+    <t>ncanton</t>
+  </si>
+  <si>
+    <t>cod_subcircuito</t>
+  </si>
+  <si>
+    <t>ndistrito</t>
+  </si>
+  <si>
+    <t>ncircuito</t>
+  </si>
+  <si>
+    <t>nsubcircuito</t>
+  </si>
+  <si>
+    <t>direccion_operativo</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>unidad_responsable</t>
+  </si>
+  <si>
+    <t>tipo_operativo</t>
+  </si>
+  <si>
+    <t>tipo_delito</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>fecha_operativo</t>
+  </si>
+  <si>
+    <t>hora_inicio_operativo</t>
+  </si>
+  <si>
+    <t>hora_fin_operativo</t>
+  </si>
+  <si>
+    <t>familla_especimen</t>
+  </si>
+  <si>
+    <t>tipo_especimen_1</t>
+  </si>
+  <si>
+    <t>tipo_especimen_2</t>
+  </si>
+  <si>
+    <t>familia_especimen</t>
+  </si>
+  <si>
+    <t>undad_responsable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,12 +728,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -670,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -681,7 +752,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -994,7 +1064,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1093,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1101,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,19 +1121,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -1072,28 +1142,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1101,19 +1171,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3">
         <v>289</v>
@@ -1124,22 +1194,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,22 +1217,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,22 +1240,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1193,22 +1263,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1216,22 +1286,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1239,91 +1309,91 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1331,22 +1401,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1354,25 +1424,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>0.14590130000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1380,25 +1450,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
         <v>-76.878917700000002</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,19 +1476,19 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1">
         <v>45020</v>
@@ -1429,22 +1499,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,22 +1522,22 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,19 +1545,19 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="6">
         <v>0.5</v>
@@ -1498,19 +1568,19 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="6">
         <v>0.75</v>
@@ -1521,25 +1591,25 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,20 +1617,20 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1568,20 +1638,20 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,20 +1659,20 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1610,20 +1680,20 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,22 +1701,22 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1672,7 +1742,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1771,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1779,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,19 +1799,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -1750,28 +1820,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,19 +1849,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3">
         <v>2934</v>
@@ -1802,22 +1872,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1825,22 +1895,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1848,22 +1918,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1871,22 +1941,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1894,22 +1964,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,91 +1987,91 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,22 +2079,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2032,25 +2102,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>-0.94476987124075795</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2058,25 +2128,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
         <v>-78.610455470991198</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2084,19 +2154,19 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1">
         <v>45545</v>
@@ -2107,22 +2177,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,19 +2200,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -2153,19 +2223,19 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="6">
         <v>0.54166666666666663</v>
@@ -2176,19 +2246,19 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="6">
         <v>0.72916666666666663</v>
@@ -2199,25 +2269,25 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20">
         <v>136</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2225,20 +2295,20 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2246,20 +2316,20 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2267,20 +2337,20 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2288,20 +2358,20 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2309,22 +2379,22 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3084,26 +3154,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -3112,28 +3182,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3141,19 +3211,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3">
         <v>2</v>
@@ -3164,22 +3234,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3187,22 +3257,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3210,22 +3280,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3233,22 +3303,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3256,22 +3326,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3279,91 +3349,91 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3371,22 +3441,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3394,25 +3464,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3420,25 +3490,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
         <v>-79444899226349</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,19 +3516,19 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1">
         <v>43467</v>
@@ -3469,22 +3539,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3492,19 +3562,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -3515,25 +3585,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3541,22 +3611,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3564,22 +3634,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3675,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3634,7 +3704,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3712,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,19 +3732,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -3683,28 +3753,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3712,19 +3782,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3">
         <v>64</v>
@@ -3735,22 +3805,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3758,22 +3828,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3781,22 +3851,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3804,22 +3874,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3827,22 +3897,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3850,91 +3920,91 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3942,22 +4012,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3965,25 +4035,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>0.91247652184898798</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3991,25 +4061,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
         <v>-78.545250891391404</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4017,19 +4087,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1">
         <v>44090</v>
@@ -4040,19 +4110,19 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -4063,19 +4133,19 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="6">
         <v>0.65972222222222221</v>
@@ -4086,19 +4156,19 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="6">
         <v>0.87569444444444444</v>
@@ -4109,25 +4179,25 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19">
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4135,20 +4205,20 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4156,20 +4226,20 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4177,20 +4247,20 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4198,20 +4268,20 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4219,22 +4289,22 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4243,7 +4313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4260,7 +4330,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4359,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4297,7 +4367,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4317,19 +4387,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -4338,28 +4408,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4367,19 +4437,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3">
         <v>81</v>
@@ -4390,22 +4460,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4413,22 +4483,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,22 +4506,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4459,22 +4529,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4482,22 +4552,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4505,91 +4575,91 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4597,22 +4667,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4620,25 +4690,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>0.87904342401061197</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4646,25 +4716,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
         <v>-79.077787399292006</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,19 +4742,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1">
         <v>44379</v>
@@ -4695,22 +4765,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4718,22 +4788,22 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4741,22 +4811,22 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4764,22 +4834,22 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4787,25 +4857,25 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20">
         <v>48.6</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4813,20 +4883,20 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4834,20 +4904,20 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4855,20 +4925,20 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4876,37 +4946,36 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" t="str">
         <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,2,FALSE)</f>
+        <v>unidades</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,3,FALSE)</f>
         <v>Unidad de medida de la cantidad de fauna silvestre rescatada</v>
-      </c>
-      <c r="C25" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,3,FALSE)</f>
-        <v>Categórica</v>
-      </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,4,FALSE)</f>
-        <v>No aplica</v>
       </c>
       <c r="E25" t="str">
         <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,5,FALSE)</f>
@@ -4917,7 +4986,7 @@
         <v>#REF!</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +5012,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +5041,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4980,7 +5049,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5000,19 +5069,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -5021,28 +5090,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5050,19 +5119,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3">
         <v>7</v>
@@ -5073,22 +5142,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5096,22 +5165,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5119,22 +5188,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5142,22 +5211,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5165,22 +5234,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5188,91 +5257,91 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5280,22 +5349,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5303,25 +5372,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>0.92865275142342796</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5329,25 +5398,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4">
         <v>-79.674552083015399</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5355,19 +5424,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1">
         <v>44581</v>
@@ -5378,22 +5447,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5401,22 +5470,22 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5424,19 +5493,19 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="6">
         <v>0.50694444444444442</v>
@@ -5447,19 +5516,19 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="6">
         <v>0.64722222222222225</v>
@@ -5470,25 +5539,25 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20">
         <v>7.7</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5496,20 +5565,20 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5517,20 +5586,20 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5538,20 +5607,20 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5559,20 +5628,20 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5580,183 +5649,169 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5765,7 +5820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5782,7 +5837,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5811,7 +5866,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5819,7 +5874,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
